--- a/Project.xlsx
+++ b/Project.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51C868B0-E7D0-448B-9323-71D362BA4E2E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="2880" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -168,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -345,23 +347,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -378,9 +380,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.42708333333333331</v>
@@ -395,9 +397,9 @@
         <v>91.058823529999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>10.4</v>
+        <v>0.2</v>
       </c>
       <c r="B3" s="1">
         <v>0.4375</v>
@@ -412,9 +414,9 @@
         <v>91.39215686</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
       <c r="B4" s="1">
         <v>0.44791666666666669</v>
@@ -429,9 +431,9 @@
         <v>91.666666669999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>10.8</v>
+        <v>0.6</v>
       </c>
       <c r="B5" s="1">
         <v>0.45833333333333331</v>
@@ -446,9 +448,9 @@
         <v>90.76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="B6" s="1">
         <v>0.46875</v>
@@ -463,9 +465,9 @@
         <v>88.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
-        <v>11.2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>0.47916666666666669</v>
@@ -480,9 +482,9 @@
         <v>87.019607840000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>11.4</v>
+        <v>1.2</v>
       </c>
       <c r="B8" s="1">
         <v>0.48958333333333331</v>
@@ -497,9 +499,9 @@
         <v>87.333333330000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>11.6</v>
+        <v>1.4</v>
       </c>
       <c r="B9" s="1">
         <v>0.5</v>
@@ -514,9 +516,9 @@
         <v>89.960784309999994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="B10" s="1">
         <v>0.51041666666666663</v>
@@ -531,9 +533,9 @@
         <v>92.058823529999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="B11" s="1">
         <v>0.52083333333333337</v>
@@ -548,9 +550,9 @@
         <v>91.098039220000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>12.2</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>0.53125</v>
@@ -565,9 +567,9 @@
         <v>92.274509800000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>12.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B13" s="1">
         <v>0.54166666666666663</v>
@@ -582,9 +584,9 @@
         <v>93.39215686</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>12.6</v>
+        <v>2.4</v>
       </c>
       <c r="B14" s="1">
         <v>0.55208333333333337</v>
@@ -599,9 +601,9 @@
         <v>96.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>12.8</v>
+        <v>2.6</v>
       </c>
       <c r="B15" s="1">
         <v>0.5625</v>
@@ -616,9 +618,9 @@
         <v>93.117647059999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="B16" s="1">
         <v>0.57291666666666663</v>
@@ -633,9 +635,9 @@
         <v>96.571428569999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>13.2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>0.58333333333333337</v>
@@ -650,9 +652,9 @@
         <v>97.714285709999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>13.4</v>
+        <v>3.2</v>
       </c>
       <c r="B18" s="1">
         <v>0.59375</v>
@@ -667,9 +669,9 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>13.6</v>
+        <v>3.4</v>
       </c>
       <c r="B19" s="1">
         <v>0.60416666666666663</v>
@@ -684,9 +686,9 @@
         <v>96.183673470000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>13.8</v>
+        <v>3.6</v>
       </c>
       <c r="B20" s="1">
         <v>0.61458333333333337</v>
@@ -701,9 +703,9 @@
         <v>95.84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>3.8</v>
       </c>
       <c r="B21" s="1">
         <v>0.625</v>
@@ -718,9 +720,9 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>14.2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>0.63541666666666663</v>
@@ -735,9 +737,9 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
-        <v>14.4</v>
+        <v>4.2</v>
       </c>
       <c r="B23" s="1">
         <v>0.64583333333333337</v>
@@ -752,9 +754,9 @@
         <v>91.39215686</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
-        <v>14.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B24" s="1">
         <v>0.65625</v>
@@ -769,9 +771,9 @@
         <v>91.980392159999994</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
-        <v>14.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B25" s="1">
         <v>0.66666666666666663</v>
@@ -786,9 +788,9 @@
         <v>94.176470589999994</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>4.8</v>
       </c>
       <c r="B26" s="1">
         <v>0.67708333333333337</v>
@@ -803,9 +805,9 @@
         <v>91.3125</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27">
-        <v>15.2</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
         <v>0.6875</v>
@@ -820,9 +822,9 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28">
-        <v>15.4</v>
+        <v>5.2</v>
       </c>
       <c r="B28" s="1">
         <v>0.69791666666666663</v>
@@ -837,9 +839,9 @@
         <v>88.061224490000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29">
-        <v>15.6</v>
+        <v>5.4</v>
       </c>
       <c r="B29" s="1">
         <v>0.70833333333333337</v>
@@ -854,9 +856,9 @@
         <v>90.235294120000006</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30">
-        <v>15.8</v>
+        <v>5.6</v>
       </c>
       <c r="B30" s="1">
         <v>0.71875</v>
@@ -871,9 +873,9 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>5.8</v>
       </c>
       <c r="B31" s="1">
         <v>0.72916666666666663</v>
@@ -888,9 +890,9 @@
         <v>86.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>16.2</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
         <v>0.73958333333333337</v>
@@ -905,9 +907,9 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>16.399999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="B33" s="1">
         <v>0.75</v>
@@ -922,9 +924,9 @@
         <v>85.078431370000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>16.600000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="B34" s="1">
         <v>0.76041666666666663</v>
@@ -939,9 +941,9 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>16.8</v>
+        <v>6.6</v>
       </c>
       <c r="B35" s="1">
         <v>0.77083333333333337</v>
@@ -956,9 +958,9 @@
         <v>87.76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36">
-        <v>17</v>
+        <v>6.8</v>
       </c>
       <c r="B36" s="1">
         <v>0.78125</v>
@@ -973,9 +975,9 @@
         <v>85.102040819999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37">
-        <v>17.2</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <v>0.79166666666666663</v>
@@ -990,9 +992,9 @@
         <v>85.19607843</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38">
-        <v>17.399999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="B38" s="1">
         <v>0.80208333333333337</v>
@@ -1007,9 +1009,9 @@
         <v>86.68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39">
-        <v>17.600000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="B39" s="1">
         <v>0.8125</v>
@@ -1024,9 +1026,9 @@
         <v>87.352941180000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40">
-        <v>17.8</v>
+        <v>7.6</v>
       </c>
       <c r="B40" s="1">
         <v>0.82291666666666663</v>
@@ -1041,9 +1043,9 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="B41" s="1">
         <v>0.83333333333333337</v>
@@ -1058,9 +1060,9 @@
         <v>87.784313729999994</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42">
-        <v>18.2</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1">
         <v>0.84375</v>
@@ -1075,9 +1077,9 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43">
-        <v>18.399999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B43" s="1">
         <v>0.85416666666666663</v>
@@ -1092,9 +1094,9 @@
         <v>89.041666669999998</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44">
-        <v>18.600000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="B44" s="1">
         <v>0.86458333333333337</v>
@@ -1109,9 +1111,9 @@
         <v>92.647058819999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45">
-        <v>18.8</v>
+        <v>8.6</v>
       </c>
       <c r="B45" s="1">
         <v>0.875</v>
@@ -1126,9 +1128,9 @@
         <v>90.38</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46">
-        <v>19</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B46" s="1">
         <v>0.88541666666666663</v>
@@ -1143,9 +1145,9 @@
         <v>85.254901959999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47">
-        <v>19.2</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
         <v>0.89583333333333337</v>
@@ -1160,9 +1162,9 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48">
-        <v>19.399999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B48" s="1">
         <v>0.90625</v>
@@ -1177,9 +1179,9 @@
         <v>86.142857140000004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49">
-        <v>19.600000000000101</v>
+        <v>9.4</v>
       </c>
       <c r="B49" s="1">
         <v>0.91666666666666663</v>
@@ -1194,9 +1196,9 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50">
-        <v>19.8</v>
+        <v>9.6</v>
       </c>
       <c r="B50" s="1">
         <v>0.9375</v>
@@ -1211,9 +1213,9 @@
         <v>80.960784309999994</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B51" s="1">
         <v>0.95833333333333337</v>
@@ -1228,9 +1230,9 @@
         <v>78.680000000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52">
-        <v>20.200000000000099</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
         <v>0.97916666666666663</v>
@@ -1245,9 +1247,9 @@
         <v>76.725490199999996</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53">
-        <v>20.400000000000102</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1262,9 +1264,9 @@
         <v>72.819999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54">
-        <v>20.600000000000101</v>
+        <v>10.4</v>
       </c>
       <c r="B54" s="1">
         <v>2.0833333333333332E-2</v>
@@ -1279,9 +1281,9 @@
         <v>71.666666669999998</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55">
-        <v>20.8000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="B55" s="1">
         <v>4.1666666666666664E-2</v>
@@ -1296,9 +1298,9 @@
         <v>68.529411760000002</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56">
-        <v>21.000000000000099</v>
+        <v>10.8</v>
       </c>
       <c r="B56" s="1">
         <v>6.25E-2</v>
@@ -1313,9 +1315,9 @@
         <v>69.745098040000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57">
-        <v>21.200000000000099</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1">
         <v>8.3333333333333329E-2</v>
@@ -1330,9 +1332,9 @@
         <v>66.44</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58">
-        <v>21.400000000000102</v>
+        <v>11.2</v>
       </c>
       <c r="B58" s="1">
         <v>0.10416666666666667</v>
@@ -1347,9 +1349,9 @@
         <v>65.06</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59">
-        <v>21.600000000000101</v>
+        <v>11.4</v>
       </c>
       <c r="B59" s="1">
         <v>0.125</v>
@@ -1364,9 +1366,9 @@
         <v>65.244897960000003</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60">
-        <v>21.8000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="B60" s="1">
         <v>0.14583333333333334</v>
@@ -1381,9 +1383,9 @@
         <v>65.260000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61">
-        <v>22.000000000000099</v>
+        <v>11.8</v>
       </c>
       <c r="B61" s="1">
         <v>0.16666666666666666</v>
@@ -1398,9 +1400,9 @@
         <v>66.529411760000002</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62">
-        <v>22.200000000000099</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1">
         <v>0.1875</v>
@@ -1415,9 +1417,9 @@
         <v>64.72</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63">
-        <v>22.400000000000102</v>
+        <v>12.2</v>
       </c>
       <c r="B63" s="1">
         <v>0.20833333333333334</v>
@@ -1432,9 +1434,9 @@
         <v>66.58823529</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64">
-        <v>22.600000000000101</v>
+        <v>12.4</v>
       </c>
       <c r="B64" s="1">
         <v>0.22916666666666666</v>
@@ -1449,9 +1451,9 @@
         <v>67.08</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65">
-        <v>22.8000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="B65" s="1">
         <v>0.25</v>
@@ -1466,9 +1468,9 @@
         <v>69.450980389999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66">
-        <v>23.000000000000099</v>
+        <v>12.8</v>
       </c>
       <c r="B66" s="1">
         <v>0.27083333333333331</v>
@@ -1483,9 +1485,9 @@
         <v>75.784313729999994</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67">
-        <v>23.200000000000099</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1">
         <v>0.29166666666666669</v>
@@ -1500,9 +1502,9 @@
         <v>78.39215686</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68">
-        <v>23.400000000000102</v>
+        <v>13.2</v>
       </c>
       <c r="B68" s="1">
         <v>0.30208333333333331</v>
@@ -1517,9 +1519,9 @@
         <v>80.19607843</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69">
-        <v>23.600000000000101</v>
+        <v>13.4</v>
       </c>
       <c r="B69" s="1">
         <v>0.3125</v>
@@ -1534,9 +1536,9 @@
         <v>77.784313729999994</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70">
-        <v>23.8000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="B70" s="1">
         <v>0.32291666666666669</v>
@@ -1551,9 +1553,9 @@
         <v>79.88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71">
-        <v>24.000000000000099</v>
+        <v>13.8</v>
       </c>
       <c r="B71" s="1">
         <v>0.33333333333333331</v>
@@ -1568,9 +1570,9 @@
         <v>83.098039220000004</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72">
-        <v>24.200000000000099</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1">
         <v>0.34375</v>
@@ -1585,9 +1587,9 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73">
-        <v>24.400000000000102</v>
+        <v>14.2</v>
       </c>
       <c r="B73" s="1">
         <v>0.35416666666666669</v>
@@ -1602,9 +1604,9 @@
         <v>83.28</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74">
-        <v>24.600000000000101</v>
+        <v>14.4</v>
       </c>
       <c r="B74" s="1">
         <v>0.36458333333333331</v>
@@ -1619,9 +1621,9 @@
         <v>90.92</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75">
-        <v>24.8000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="B75" s="1">
         <v>0.375</v>
@@ -1636,9 +1638,9 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76">
-        <v>25.000000000000099</v>
+        <v>14.8</v>
       </c>
       <c r="B76" s="1">
         <v>0.38541666666666669</v>
@@ -1653,9 +1655,9 @@
         <v>89.36</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77">
-        <v>25.200000000000099</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1">
         <v>0.39583333333333331</v>
@@ -1670,9 +1672,9 @@
         <v>88.254901959999998</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78">
-        <v>25.400000000000102</v>
+        <v>15.2</v>
       </c>
       <c r="B78" s="1">
         <v>0.40625</v>
@@ -1687,9 +1689,9 @@
         <v>90.137254900000002</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79">
-        <v>25.600000000000101</v>
+        <v>15.4</v>
       </c>
       <c r="B79" s="1">
         <v>0.41666666666666669</v>
@@ -1706,5 +1708,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>